--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2306792.626045274</v>
+        <v>2308553.15634806</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>118.1014820586772</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>28.33708868093433</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>202.4559195648989</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>38.30301582052424</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.61375284157866</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>212.568965117905</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
-        <v>212.5689651179051</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>109.3170492634408</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>28.33708868093411</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>103.7745275653192</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>184.5337082881003</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>44.40826805868537</v>
+        <v>78.19922153335952</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115242</v>
+        <v>18.4733505966227</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256411</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>16.79272935006691</v>
+        <v>50.34571932180148</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>16.92025364381838</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>120.8326485140805</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>206.758226496619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>127.5379405516748</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4641157700689</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>56.04917322726008</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.18447438924</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.44478684180609</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.797182079703</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428526</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>153.2646806878225</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892427719</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>206.5509998577715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457615</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>840.1393936243022</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="C2" t="n">
-        <v>573.7617370571243</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899464</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>153.3553494954612</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030612</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991325</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.514968335842</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>832.0187073593814</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>657.5656780782545</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>508.6312684170032</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>349.3938134115477</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957466</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y3" t="n">
-        <v>832.0187073593814</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.4249251342374</v>
+        <v>378.8398477105897</v>
       </c>
       <c r="C4" t="n">
-        <v>255.4887422063304</v>
+        <v>209.9036647826827</v>
       </c>
       <c r="D4" t="n">
-        <v>255.4887422063304</v>
+        <v>59.78702537034701</v>
       </c>
       <c r="E4" t="n">
-        <v>107.5756486239373</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>107.5756486239373</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5756486239373</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>107.5756486239373</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287948</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4527,13 +4527,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X4" t="n">
-        <v>826.8659691080072</v>
+        <v>560.4883125408294</v>
       </c>
       <c r="Y4" t="n">
-        <v>606.0733899644771</v>
+        <v>560.4883125408294</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4558,31 +4558,31 @@
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917602</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052543</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>801.3675279810723</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>547.1301712528707</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>339.2786710473379</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>131.518372282384</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>125.9198655166046</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="C7" t="n">
-        <v>125.9198655166046</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D7" t="n">
-        <v>125.9198655166046</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>125.9198655166046</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>125.9198655166046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>125.9198655166046</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4755,22 +4755,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>574.701995558152</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>574.701995558152</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>346.7124446601347</v>
+        <v>868.4578348665295</v>
       </c>
       <c r="Y7" t="n">
-        <v>125.9198655166046</v>
+        <v>647.6652557229994</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>428.0882725307384</v>
+        <v>438.7850908643996</v>
       </c>
       <c r="C8" t="n">
-        <v>428.0882725307384</v>
+        <v>69.82257392398793</v>
       </c>
       <c r="D8" t="n">
-        <v>69.82257392398789</v>
+        <v>69.82257392398793</v>
       </c>
       <c r="E8" t="n">
-        <v>69.82257392398789</v>
+        <v>69.82257392398793</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478441</v>
+        <v>62.87707317478446</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607416</v>
+        <v>442.1757437607423</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045922</v>
+        <v>795.1862829045926</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995226</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.905718940596</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550196</v>
+        <v>2359.356530550198</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661162</v>
+        <v>2540.564622661164</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S8" t="n">
-        <v>2515.705923919867</v>
+        <v>2481.573647682825</v>
       </c>
       <c r="T8" t="n">
-        <v>2515.705923919867</v>
+        <v>2272.821563779098</v>
       </c>
       <c r="U8" t="n">
-        <v>2262.124745445436</v>
+        <v>2272.821563779098</v>
       </c>
       <c r="V8" t="n">
-        <v>1931.061858101866</v>
+        <v>1941.758676435527</v>
       </c>
       <c r="W8" t="n">
-        <v>1578.293202831752</v>
+        <v>1588.990021165413</v>
       </c>
       <c r="X8" t="n">
-        <v>1204.827444570672</v>
+        <v>1215.524262904333</v>
       </c>
       <c r="Y8" t="n">
-        <v>814.6881125948602</v>
+        <v>825.3849309285215</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010786</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199516</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587004</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532449</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801299</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763181</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>69.87120530445436</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637186</v>
+        <v>113.4887579637188</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148177</v>
+        <v>304.4086435688654</v>
       </c>
       <c r="L9" t="n">
-        <v>776.7040495714582</v>
+        <v>598.9446270023468</v>
       </c>
       <c r="M9" t="n">
-        <v>1139.770518045759</v>
+        <v>1232.683910187186</v>
       </c>
       <c r="N9" t="n">
-        <v>1526.854920518328</v>
+        <v>1866.423193372025</v>
       </c>
       <c r="O9" t="n">
-        <v>1858.741730505717</v>
+        <v>2198.310003359414</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888879</v>
+        <v>2445.345361789039</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442624</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251699</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685348</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751578</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519835</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791633</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586101</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821147</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.0294715062572</v>
+        <v>715.9213805686154</v>
       </c>
       <c r="C10" t="n">
-        <v>513.0932885783503</v>
+        <v>546.9851976407085</v>
       </c>
       <c r="D10" t="n">
-        <v>362.9766491660146</v>
+        <v>396.8685582283728</v>
       </c>
       <c r="E10" t="n">
-        <v>215.0635555836215</v>
+        <v>248.9554646459796</v>
       </c>
       <c r="F10" t="n">
-        <v>68.17360808571109</v>
+        <v>102.0655171480693</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380138</v>
+        <v>76.63468308380152</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368916</v>
+        <v>523.3850043368921</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904029</v>
+        <v>823.8653899904036</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.084657271475</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.667487234514</v>
+        <v>1346.351975440403</v>
       </c>
       <c r="X10" t="n">
-        <v>863.6779363364969</v>
+        <v>1118.362424542385</v>
       </c>
       <c r="Y10" t="n">
-        <v>863.6779363364969</v>
+        <v>897.5698453988551</v>
       </c>
     </row>
     <row r="11">
@@ -5020,10 +5020,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5269,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5296,19 +5296,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603202</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="20">
@@ -5734,52 +5734,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179131</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602308</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396421</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359461</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614432</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179131</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,25 +6001,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,43 +6457,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6600,16 +6600,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,28 +6621,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400749</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>344.917417812168</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>344.917417812168</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>344.917417812168</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.917417812168</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270479</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038374</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487571</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510512</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.38585385471</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648823</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611862</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138447</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703146</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,13 +7405,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7420,43 +7420,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270397</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.3216690912726</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,13 +8139,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094455</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8534,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.386756822269973</v>
       </c>
       <c r="L9" t="n">
-        <v>185.9417291143025</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.4068835459975</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538077</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348506</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-5.320385411508442e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.909780279859961e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>131.695219374394</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>104.8770068749567</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>45.37941682720898</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>39.70888054695304</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>84.24553961896822</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>111.1976478713677</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>145.1398665102887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194156</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219386</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>72.44497470121462</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219467</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>10.85445046951673</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>35.40333084624518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001785</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982119</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="I2" t="n">
+        <v>605359.9497675048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="O2" t="n">
-        <v>605359.9497675046</v>
-      </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580784</v>
+        <v>390680.0076580792</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060694</v>
+        <v>507909.232060693</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101757</v>
+        <v>95270.23779101763</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.454766284</v>
+        <v>136854.4547662837</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
@@ -26432,34 +26432,34 @@
         <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756546</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.200356756655</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756555</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567893</v>
+        <v>92902.86757567899</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375897.7230837938</v>
+        <v>-375897.7230837935</v>
       </c>
       <c r="C6" t="n">
-        <v>304190.2575073992</v>
+        <v>304190.2575073996</v>
       </c>
       <c r="D6" t="n">
-        <v>-4656.002601829023</v>
+        <v>-4656.002601830012</v>
       </c>
       <c r="E6" t="n">
-        <v>-13356.39172821008</v>
+        <v>-13043.75039928789</v>
       </c>
       <c r="F6" t="n">
-        <v>494552.8403324835</v>
+        <v>494865.4816614053</v>
       </c>
       <c r="G6" t="n">
-        <v>494552.8403324838</v>
+        <v>494865.4816614051</v>
       </c>
       <c r="H6" t="n">
-        <v>494552.8403324838</v>
+        <v>494865.4816614052</v>
       </c>
       <c r="I6" t="n">
-        <v>494552.8403324836</v>
+        <v>494865.4816614054</v>
       </c>
       <c r="J6" t="n">
-        <v>425553.6859133699</v>
+        <v>425866.3272422908</v>
       </c>
       <c r="K6" t="n">
-        <v>494552.8403324835</v>
+        <v>494865.4816614048</v>
       </c>
       <c r="L6" t="n">
-        <v>399282.6025414659</v>
+        <v>399595.2438703871</v>
       </c>
       <c r="M6" t="n">
-        <v>361834.8646370147</v>
+        <v>362147.5059659359</v>
       </c>
       <c r="N6" t="n">
-        <v>494552.8403324835</v>
+        <v>494865.481661405</v>
       </c>
       <c r="O6" t="n">
-        <v>494552.8403324839</v>
+        <v>494865.4816614048</v>
       </c>
       <c r="P6" t="n">
-        <v>494552.8403324836</v>
+        <v>494865.4816614051</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627823</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856953</v>
+        <v>640.140690085696</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933041</v>
+        <v>319.6474457933048</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788916</v>
+        <v>434.2730407788906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841898</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841894</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841898</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.1648765455755</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>288.7745636830342</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27517,7 +27517,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>204.4634984684909</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.22677621240544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>108.1309468260449</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>36.53682068322988</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888209</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>170.1648765455756</v>
       </c>
       <c r="C5" t="n">
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>142.1140765027779</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>57.21613438642653</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>177.4358965225434</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>48.60763177053755</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>41.17594710093687</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465045</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>79.07714907615532</v>
+        <v>45.2861956014811</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164529659</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164532778</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>149.5145242616393</v>
+        <v>115.9615342899047</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.63709516081679e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29015,7 +29015,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30170,7 +30170,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30650,7 +30650,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885554</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972531</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763187</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354926</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359935</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525072</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307889</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983017</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542127</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864749</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140465</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436928</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026266</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502166</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571278</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617163</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152211</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519081</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947587</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366397</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133931</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415877</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490122</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046253</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307409</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942746</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650327</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.938547087769</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966407</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705668</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313381</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655054</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087208</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559163</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091022</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430322</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797632</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234278</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127574</v>
+        <v>62.90656844127591</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758576</v>
+        <v>192.8483692981278</v>
       </c>
       <c r="L9" t="n">
-        <v>483.4528234915561</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>366.733806539698</v>
+        <v>640.140690085696</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318878</v>
+        <v>640.140690085696</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074636</v>
+        <v>335.239202007464</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203656</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603485</v>
+        <v>116.3812106603487</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783566</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873308</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641529</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228576</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409638</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010406</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
